--- a/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,47 +725,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,22</t>
+          <t>1,39; 5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,41</t>
+          <t>0,87; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,57</t>
+          <t>0,9; 3,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,39</t>
+          <t>1,49; 4,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,75</t>
+          <t>2,39; 7,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,68</t>
+          <t>2,57; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,91</t>
+          <t>2,34; 6,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,97</t>
+          <t>1,06; 3,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,29</t>
+          <t>2,36; 5,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,46</t>
+          <t>1,9; 4,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,54</t>
+          <t>1,61; 3,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,37</t>
+          <t>0,8; 3,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,24; 4,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,43</t>
+          <t>1,74; 5,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,65</t>
+          <t>0,46; 3,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,5</t>
+          <t>2,64; 7,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,39</t>
+          <t>3,71; 9,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,21</t>
+          <t>2,33; 6,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,72</t>
+          <t>0,82; 2,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,79</t>
+          <t>2,1; 4,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,76</t>
+          <t>2,86; 5,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,17</t>
+          <t>2,42; 5,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,72</t>
+          <t>0,84; 2,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,99</t>
+          <t>3,35; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,22</t>
+          <t>3,68; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,87</t>
+          <t>2,93; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,13</t>
+          <t>0,36; 3,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 11,18</t>
+          <t>2,98; 11,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,3</t>
+          <t>3,19; 8,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,07</t>
+          <t>0,74; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,33</t>
+          <t>0,3; 5,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,17</t>
+          <t>3,62; 7,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,92</t>
+          <t>4,0; 7,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,0</t>
+          <t>2,8; 5,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,76</t>
+          <t>0,51; 2,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,75</t>
+          <t>3,33; 5,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,4</t>
+          <t>4,63; 7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,39</t>
+          <t>2,8; 5,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,45</t>
+          <t>1,48; 3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,44</t>
+          <t>3,89; 7,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,09</t>
+          <t>5,92; 10,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,02</t>
+          <t>3,78; 6,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,67</t>
+          <t>0,67; 2,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,85</t>
+          <t>3,85; 5,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 7,96</t>
+          <t>5,44; 7,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,45</t>
+          <t>3,57; 5,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,62</t>
+          <t>1,3; 2,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,14</t>
+          <t>6,99; 13,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,21</t>
+          <t>4,77; 9,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,8</t>
+          <t>3,83; 7,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,73</t>
+          <t>1,44; 4,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,0</t>
+          <t>6,67; 12,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,6</t>
+          <t>5,47; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,58</t>
+          <t>5,16; 8,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,05</t>
+          <t>2,01; 4,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,4</t>
+          <t>7,55; 11,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,71</t>
+          <t>5,74; 8,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,65</t>
+          <t>4,98; 7,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,74</t>
+          <t>2,08; 3,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,17</t>
+          <t>4,28; 10,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,11</t>
+          <t>1,53; 6,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,05</t>
+          <t>4,26; 10,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,9</t>
+          <t>4,28; 6,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,46</t>
+          <t>3,99; 6,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,58</t>
+          <t>2,45; 4,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,18</t>
+          <t>2,17; 5,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,23</t>
+          <t>4,74; 7,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,03</t>
+          <t>3,77; 6,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,45</t>
+          <t>3,08; 5,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,94</t>
+          <t>1,92; 4,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,7</t>
+          <t>4,11; 5,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,58</t>
+          <t>4,1; 5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,18</t>
+          <t>3,66; 5,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,65</t>
+          <t>1,48; 2,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,86</t>
+          <t>5,16; 6,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,12</t>
+          <t>5,43; 7,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,32</t>
+          <t>3,93; 5,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,09</t>
+          <t>1,82; 3,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 6,0</t>
+          <t>4,81; 6,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,05</t>
+          <t>4,96; 6,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,93</t>
+          <t>3,97; 4,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,65</t>
+          <t>1,86; 2,71</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con dos o más personas por habitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14356</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8062</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13310</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13454</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14307</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14357</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9484</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27810</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22369</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22569</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22793</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6569; 23726</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3803; 15788</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3835; 15804</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7436; 23215</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7311; 22348</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8083; 22429</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8089; 22946</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4722; 17171</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18374; 41185</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14176; 32532</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14729; 33328</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15148; 34842</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6646</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10668</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12233</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6264</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17357</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20377</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14365</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5825</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24003</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31046</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26598</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12089</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2938; 13283</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5181; 19389</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6508; 20969</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2054; 17569</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9795; 26554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12465; 30346</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8635; 24139</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3101; 11183</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15463; 35445</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21497; 44583</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18023; 38727</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6913; 21917</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26939</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32735</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24117</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14493</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4243</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2744</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47228</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28359</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12948</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18087; 38512</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23058; 45884</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15127; 36373</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2419; 20948</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5008; 19582</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8308; 23008</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1224; 10455</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>491; 8443</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25632; 49839</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35484; 63328</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19101; 40605</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4203; 23247</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>54345</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67804</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>45814</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23210</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59359</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42387</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16006</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>93956</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>127164</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>88200</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41141; 70563</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53396; 84983</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31977; 59710</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15254; 34326</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27799; 53654</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45147; 77178</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31042; 56800</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6517; 25146</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>75185; 113153</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>104234; 151496</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>70212; 108091</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25985; 54397</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34853</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33981</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34700</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12390</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51077</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>55336</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48764</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24514</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>89318</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>83464</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36904</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24276; 47661</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24285; 46486</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23708; 49239</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6821; 20484</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37743; 67953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41408; 71263</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37853; 63328</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16766; 36076</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>68919; 109155</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>72786; 110718</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>67334; 101787</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27158; 50971</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20167</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9099</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20048</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69260</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>55825</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>36199</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26143</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>89427</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>64925</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>56247</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29350</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12672; 31277</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4076; 17091</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12177; 30268</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11533</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>53277; 86646</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>44073; 73119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26380; 51815</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16395; 45007</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>73020; 109993</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>51621; 83848</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>41915; 74286</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19005; 48049</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>157307</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>162350</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>145123</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>68585</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>201060</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>219699</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>160315</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>84715</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>358366</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>382049</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>305438</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>153301</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>134033; 183962</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139863; 187762</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>123060; 171734</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49502; 89262</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>174018; 231698</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>191859; 249027</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>138161; 187408</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>64633; 107163</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>319082; 398238</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>344742; 423179</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>273068; 343204</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>128458; 187108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
